--- a/cleaned/kotak_mutual_fund_portfolio.xlsx
+++ b/cleaned/kotak_mutual_fund_portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name of Instrument</t>
+          <t>name of instrument</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>isin</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Rating/Industry</t>
+          <t>coupon</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Yield</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Market Value</t>
+          <t>market value (mkt)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Net Asset Value (NAV)</t>
+          <t>% to net assets (nav)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>yield</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>yield to call (ytc)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>yield to maturity (ytm)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Scheme</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AmcName</t>
         </is>
@@ -496,12 +511,12 @@
           <t>INE646L01027</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Transport Services</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>11079</t>
@@ -517,17 +532,20 @@
           <t>20.07</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>TIF</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -544,12 +562,12 @@
           <t>INE053A01029</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Leisure Services</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>60289</t>
@@ -565,17 +583,20 @@
           <t>19.310000000000002</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>TIF</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -592,12 +613,12 @@
           <t>INE797F01020</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Leisure Services</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>43712</t>
@@ -613,17 +634,20 @@
           <t>12.89</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>TIF</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -640,12 +664,12 @@
           <t>INE776C01039</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Transport Infrastructure</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>410633</t>
@@ -661,17 +685,20 @@
           <t>12.5</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>TIF</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -688,12 +715,12 @@
           <t>INE335Y01020</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Leisure Services</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>34539</t>
@@ -709,17 +736,20 @@
           <t>11.9</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>TIF</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -736,12 +766,12 @@
           <t>INE230A01023</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Leisure Services</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>24476</t>
@@ -757,17 +787,20 @@
           <t>3.8</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>TIF</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -784,12 +817,12 @@
           <t>INE806T01020</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>Leisure Services</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>26983</t>
@@ -805,17 +838,20 @@
           <t>3.27</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>TIF</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -832,12 +868,12 @@
           <t>INE872J01023</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Leisure Services</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>46006</t>
@@ -853,17 +889,20 @@
           <t>3.25</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>TIF</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -880,12 +919,12 @@
           <t>INE970X01018</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>Leisure Services</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>56447</t>
@@ -901,17 +940,20 @@
           <t>3.2199999999999998</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>TIF</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -928,12 +970,12 @@
           <t>INE427F01016</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>Leisure Services</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>8143</t>
@@ -949,17 +991,20 @@
           <t>2.63</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>TIF</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -976,12 +1021,12 @@
           <t>INE153T01027</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>Leisure Services</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>13858</t>
@@ -997,17 +1042,20 @@
           <t>2.53</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>TIF</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -1024,12 +1072,12 @@
           <t>INE274F01020</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>Leisure Services</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>7773</t>
@@ -1045,17 +1093,20 @@
           <t>2.36</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>TIF</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -1072,12 +1123,12 @@
           <t>INE673O01025</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>Leisure Services</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>1969</t>
@@ -1093,17 +1144,20 @@
           <t>1.28</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>TIF</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -1120,12 +1174,12 @@
           <t>INE054A01027</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>Consumer Durables</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>7629</t>
@@ -1141,17 +1195,20 @@
           <t>1.1900000000000002</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>TIF</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -1168,12 +1225,12 @@
           <t>INE07O001026</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>Leisure Services</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>201895</t>
@@ -1189,17 +1246,20 @@
           <t>1.1400000000000001</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>TIF</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -1216,12 +1276,12 @@
           <t>INE009A01021</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>707726</t>
@@ -1237,17 +1297,20 @@
           <t>22.290000000000003</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -1264,12 +1327,12 @@
           <t>INE397D01024</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>Telecom - Services</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>444377</t>
@@ -1285,17 +1348,20 @@
           <t>12.11</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -1312,12 +1378,12 @@
           <t>INE467B01029</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>125972</t>
@@ -1333,17 +1399,20 @@
           <t>8.68</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -1360,12 +1429,12 @@
           <t>INE669C01036</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>285579</t>
@@ -1381,17 +1450,20 @@
           <t>8.01</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -1408,12 +1480,12 @@
           <t>INE758T01015</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>1245016</t>
@@ -1429,17 +1501,20 @@
           <t>4.6</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -1456,12 +1531,12 @@
           <t>INE860A01027</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>141107</t>
@@ -1477,17 +1552,20 @@
           <t>4.08</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -1504,12 +1582,12 @@
           <t>INE075A01022</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>777882</t>
@@ -1525,17 +1603,20 @@
           <t>4.07</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -1552,12 +1633,12 @@
           <t>INE356A01018</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>65522</t>
@@ -1573,17 +1654,20 @@
           <t>3.15</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -1600,12 +1684,12 @@
           <t>INE262H01021</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>27776</t>
@@ -1621,17 +1705,20 @@
           <t>2.81</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -1648,12 +1735,12 @@
           <t>INE00H001014</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>376378</t>
@@ -1669,17 +1756,20 @@
           <t>2.62</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -1696,12 +1786,12 @@
           <t>INE591G01017</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>17100</t>
@@ -1717,17 +1807,20 @@
           <t>2.37</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -1744,12 +1837,12 @@
           <t>INE343G01021</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>Telecom - Services</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>90802</t>
@@ -1765,17 +1858,20 @@
           <t>2.06</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -1792,12 +1888,12 @@
           <t>INE121J01017</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>Telecom - Services</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>307098</t>
@@ -1813,17 +1909,20 @@
           <t>1.79</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -1840,12 +1939,12 @@
           <t>INE520A01027</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>119060</t>
@@ -1861,17 +1960,20 @@
           <t>1.7400000000000002</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -1888,12 +1990,12 @@
           <t>INE836A01035</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>192000</t>
@@ -1909,17 +2011,20 @@
           <t>1.72</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -1936,12 +2041,12 @@
           <t>INE214T01019</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>16350</t>
@@ -1957,17 +2062,20 @@
           <t>1.6199999999999999</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -1984,12 +2092,12 @@
           <t>INE684F01012</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>Commercial Services and Supplies</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>239000</t>
@@ -2005,17 +2113,20 @@
           <t>1.34</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -2032,12 +2143,12 @@
           <t>INE02RE01045</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>159103</t>
@@ -2053,17 +2164,20 @@
           <t>1.27</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -2080,12 +2194,12 @@
           <t>INE142M01025</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>IT - Services</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>88000</t>
@@ -2101,17 +2215,20 @@
           <t>1.1600000000000001</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -2128,12 +2245,12 @@
           <t>INE663F01024</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>7917</t>
@@ -2149,17 +2266,20 @@
           <t>1.02</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -2176,12 +2296,12 @@
           <t>INE388Y01029</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>355802</t>
@@ -2197,17 +2317,20 @@
           <t>1.0100000000000002</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -2224,12 +2347,12 @@
           <t>INE00U401027</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>327186</t>
@@ -2245,17 +2368,20 @@
           <t>0.79</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -2272,12 +2398,12 @@
           <t>INE191H01014</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>Entertainment</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
           <t>41380</t>
@@ -2293,17 +2419,20 @@
           <t>0.76</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -2320,12 +2449,12 @@
           <t>INE269A01021</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>83300</t>
@@ -2341,17 +2470,20 @@
           <t>0.74</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -2368,12 +2500,12 @@
           <t>INE935N01020</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>Consumer Durables</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>2900</t>
@@ -2389,17 +2521,20 @@
           <t>0.73</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -2416,12 +2551,12 @@
           <t>INE424H01027</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>Entertainment</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>63862</t>
@@ -2437,17 +2572,20 @@
           <t>0.66</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -2464,12 +2602,12 @@
           <t>INE918Z01012</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>Industrial Manufacturing</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>8000</t>
@@ -2485,17 +2623,20 @@
           <t>0.64</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
@@ -2512,12 +2653,12 @@
           <t>INE151A01013</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>Telecom - Services</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
           <t>15000</t>
@@ -2533,17 +2674,20 @@
           <t>0.41000000000000003</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equity  Equity related        </t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>TCH</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Equity &amp; Equity related   NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>TCH</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>Kotak Mutual Fund</t>
         </is>
